--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
   <si>
     <t>土地坐落</t>
   </si>
@@ -282,10 +282,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>國泰綜合證券(股)公司</t>
   </si>
   <si>
     <t>上銀科技(股)公司</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1888,13 +1900,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1913,13 +1925,22 @@
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1936,13 +1957,22 @@
       <c r="G2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1958,6 +1988,15 @@
       </c>
       <c r="G3" s="2">
         <v>30000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -1975,22 +2014,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>65</v>
@@ -2001,13 +2040,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2027,13 +2066,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2053,13 +2092,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2079,13 +2118,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2105,13 +2144,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2131,13 +2170,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2157,13 +2196,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2183,13 +2222,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2209,13 +2248,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2235,13 +2274,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2261,13 +2300,13 @@
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2287,13 +2326,13 @@
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2313,13 +2352,13 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -2339,13 +2378,13 @@
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -2365,13 +2404,13 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -2391,13 +2430,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -2417,13 +2456,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -2453,22 +2492,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2476,14 +2515,14 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2493,22 +2532,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2526,13 +2565,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2540,10 +2579,10 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2554,10 +2593,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2568,10 +2607,10 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2582,10 +2621,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2596,10 +2635,10 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2610,10 +2649,10 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2624,10 +2663,10 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2638,10 +2677,10 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2652,10 +2691,10 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2666,10 +2705,10 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2680,10 +2719,10 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2694,10 +2733,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2708,10 +2747,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2722,10 +2761,10 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -2736,10 +2775,10 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -2750,10 +2789,10 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -2777,19 +2816,19 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2797,22 +2836,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2820,22 +2859,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="166">
   <si>
     <t>土地坐落</t>
   </si>
@@ -282,6 +282,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t>上銀科技(股)公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-18</t>
@@ -1900,13 +1906,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1934,13 +1940,16 @@
       <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1958,21 +1967,24 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -1990,12 +2002,15 @@
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>708</v>
       </c>
     </row>
@@ -2014,22 +2029,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>65</v>
@@ -2040,13 +2055,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2066,13 +2081,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2092,13 +2107,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2118,13 +2133,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2144,13 +2159,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2170,13 +2185,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2196,13 +2211,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2222,13 +2237,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2248,13 +2263,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2274,13 +2289,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2300,13 +2315,13 @@
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2326,13 +2341,13 @@
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2352,13 +2367,13 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -2378,13 +2393,13 @@
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -2404,13 +2419,13 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -2430,13 +2445,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -2456,13 +2471,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -2492,22 +2507,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2515,14 +2530,14 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2532,22 +2547,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2565,13 +2580,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2579,10 +2594,10 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2593,10 +2608,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2607,10 +2622,10 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2621,10 +2636,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2635,10 +2650,10 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2649,10 +2664,10 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2663,10 +2678,10 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2677,10 +2692,10 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2691,10 +2706,10 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2705,10 +2720,10 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2719,10 +2734,10 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2733,10 +2748,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2747,10 +2762,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2761,10 +2776,10 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -2775,10 +2790,10 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -2789,10 +2804,10 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -2816,19 +2831,19 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2836,22 +2851,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2859,22 +2874,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
   <si>
     <t>土地坐落</t>
   </si>
@@ -285,6 +285,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -294,6 +297,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國泰綜合證券(股)公司</t>
   </si>
   <si>
@@ -303,7 +312,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmp3fed1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1906,13 +1921,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1943,13 +1958,22 @@
       <c r="K1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1967,24 +1991,33 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>708</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2002,16 +2035,25 @@
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>708</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="2">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2029,22 +2071,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>65</v>
@@ -2055,13 +2097,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2081,13 +2123,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2107,13 +2149,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2133,13 +2175,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2159,13 +2201,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2185,13 +2227,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2211,13 +2253,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2237,13 +2279,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2263,13 +2305,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2289,13 +2331,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2315,13 +2357,13 @@
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2341,13 +2383,13 @@
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2367,13 +2409,13 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -2393,13 +2435,13 @@
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -2419,13 +2461,13 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -2445,13 +2487,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -2471,13 +2513,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -2507,22 +2549,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2530,14 +2572,14 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2547,22 +2589,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2580,13 +2622,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2594,10 +2636,10 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2608,10 +2650,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2622,10 +2664,10 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2636,10 +2678,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2650,10 +2692,10 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2664,10 +2706,10 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2678,10 +2720,10 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -2692,10 +2734,10 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -2706,10 +2748,10 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2720,10 +2762,10 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2734,10 +2776,10 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -2748,10 +2790,10 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -2762,10 +2804,10 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -2776,10 +2818,10 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -2790,10 +2832,10 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -2804,10 +2846,10 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>30</v>
@@ -2831,19 +2873,19 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2851,22 +2893,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2874,22 +2916,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,9 +22,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="175">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉面前厝段12750024地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉面前厝段12790000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06740000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06750000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06760000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄕中勸段06770000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06780000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06800000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉中勸段06750001地號</t>
+  </si>
+  <si>
+    <t>雲林縣播背鄉順天段10850000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉順天段10860000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉順天段10890000地號</t>
+  </si>
+  <si>
+    <t>雲林縣崙背鄉順天段10900000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天山段一小段03260000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天山段一小段</t>
+  </si>
+  <si>
+    <t>臺中市北屯區景美段01710002地號</t>
+  </si>
+  <si>
+    <t>臺中市北屯區景美段00470001地號</t>
+  </si>
+  <si>
+    <t>臺中市北屯區景美段00470002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>4073分之182</t>
+  </si>
+  <si>
+    <t>480分之19</t>
+  </si>
+  <si>
+    <t>10000分之509</t>
+  </si>
+  <si>
+    <t>10000分之</t>
+  </si>
+  <si>
+    <t>李應元</t>
+  </si>
+  <si>
+    <t>黃月桂</t>
+  </si>
+  <si>
+    <t>96年07月19日</t>
+  </si>
+  <si>
+    <t>87年04月17日</t>
+  </si>
+  <si>
+    <t>96年07月19日.</t>
+  </si>
+  <si>
+    <t>96年07月19曰</t>
+  </si>
+  <si>
+    <t>84年01月05日</t>
+  </si>
+  <si>
+    <t>96年07月16日</t>
+  </si>
+  <si>
+    <t>96年07月</t>
+  </si>
+  <si>
+    <t>91年09月11曰</t>
+  </si>
+  <si>
+    <t>97年02月05日</t>
+  </si>
+  <si>
+    <t>96年07月31日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1852047</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>tmp3fed1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,142 +216,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>雲林縣崙背鄉面前厝段 1275-0024 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉面前厝段 1279-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0674-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0675-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0676-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄕中勸段0677-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0678-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0680-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉中勸段0675-0001 地號</t>
-  </si>
-  <si>
-    <t>雲林縣播背鄉順天段1085-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉順天段1086-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉順天段1089-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣崙背鄉順天段1090-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天山段一小段 0326-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天山段一小段</t>
-  </si>
-  <si>
-    <t>臺中市北屯區景美段0171 -0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市北屯區景美段0047-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市北屯區景美段0047-0002 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>4073分之 182</t>
-  </si>
-  <si>
-    <t>480分之19</t>
-  </si>
-  <si>
-    <t>10000分之 509</t>
-  </si>
-  <si>
-    <t>10000分之</t>
-  </si>
-  <si>
-    <t>李應元</t>
-  </si>
-  <si>
-    <t>黃月桂</t>
-  </si>
-  <si>
-    <t>96年07月 19日</t>
-  </si>
-  <si>
-    <t>87年04月 17日</t>
-  </si>
-  <si>
-    <t>96年07月 19日.</t>
-  </si>
-  <si>
-    <t>96年07月 19曰</t>
-  </si>
-  <si>
-    <t>84年01月 05日</t>
-  </si>
-  <si>
-    <t>96年07月 16日</t>
-  </si>
-  <si>
-    <t>96年07月</t>
-  </si>
-  <si>
-    <t>91年09月 11曰</t>
-  </si>
-  <si>
-    <t>97年02月 05日</t>
-  </si>
-  <si>
-    <t>96年07月 31日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1’852,047</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市士林區天山段一小段 11793-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天山段一小段 11796-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市北屯區景美段00022-000 建號</t>
-  </si>
-  <si>
-    <t>92年09月 11曰</t>
+    <t>臺北市士林區天山段一小段11793000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天山段一小段11796000建號</t>
+  </si>
+  <si>
+    <t>臺中市北屯區景美段00022000建號</t>
+  </si>
+  <si>
+    <t>92年09月11曰</t>
   </si>
   <si>
     <t>(自建）</t>
   </si>
   <si>
-    <t>1，852,047(共 有）</t>
+    <t>1852047(共有）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -195,7 +246,7 @@
     <t>Volvo</t>
   </si>
   <si>
-    <t>Toyota camary</t>
+    <t>Toyotacamary</t>
   </si>
   <si>
     <t>96年</t>
@@ -204,7 +255,7 @@
     <t>98年</t>
   </si>
   <si>
-    <t>cm-5^ 貝賣</t>
+    <t>cm5貝賣</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -222,7 +273,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司行 政院郵局</t>
+    <t>中華郵政股份有限公司行政院郵局</t>
   </si>
   <si>
     <t>臺灣銀行斗六分行</t>
@@ -231,16 +282,16 @@
     <t>臺灣銀行天母分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行南京東 路分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行天母分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行忠誠分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 中大坑郵局</t>
+    <t>合作金庫商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行忠誠分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台中大坑郵局</t>
   </si>
   <si>
     <t>台新國際商業銀行</t>
@@ -264,12 +315,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -282,27 +327,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國泰綜合證券(股)公司</t>
   </si>
   <si>
@@ -312,15 +336,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-18</t>
-  </si>
-  <si>
-    <t>tmp3fed1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -384,13 +399,10 @@
     <t>寶來富櫃50</t>
   </si>
   <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業 銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行</t>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
   </si>
   <si>
     <t>名</t>
@@ -408,22 +420,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>f額：新臺幣 元）</t>
+    <t>f額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -489,7 +501,7 @@
     <t>廿年安泰還本養老壽險</t>
   </si>
   <si>
-    <t>廿年安泰年年如意還本養老 壽險</t>
+    <t>廿年安泰年年如意還本養老壽險</t>
   </si>
   <si>
     <t>健康新生活終身保險</t>
@@ -522,19 +534,19 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>國泰世華商業銀行 臺北市中山區建國北路</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行 臺北市中山區中山北路</t>
-  </si>
-  <si>
-    <t>98年12月 18曰</t>
-  </si>
-  <si>
-    <t>96年11月 16日</t>
-  </si>
-  <si>
-    <t>償還購屋貸 款</t>
+    <t>國泰世華商業銀行臺北市中山區建國北路</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行臺北市中山區中山北路</t>
+  </si>
+  <si>
+    <t>98年12月18曰</t>
+  </si>
+  <si>
+    <t>96年11月16日</t>
+  </si>
+  <si>
+    <t>償還購屋貸款</t>
   </si>
 </sst>
 </file>
@@ -893,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,473 +933,872 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>118.05</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>1298550</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>708</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>25314</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>708</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>24.51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
         <v>10672</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>708</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>264.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>115081</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>708</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>34.02</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
         <v>14813</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>708</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>6.41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
         <v>2791</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>708</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>89.43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2">
         <v>38939</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>708</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>4.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2">
         <v>1881</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>708</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>0.17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>708</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>46.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2">
         <v>20116</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>708</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>12.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2">
         <v>5521</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>708</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>82.71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2">
         <v>36013</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>708</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>16.61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2">
         <v>7232</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>708</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>16.38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>708</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>28.86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2">
         <v>3261214</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>708</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>291.49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2">
         <v>6121290</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>708</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>259.49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
         <v>6513199</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>708</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>259.2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2">
         <v>6505920</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="2">
+        <v>708</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1405,25 +1816,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1431,22 +1842,22 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>192.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>606500</v>
@@ -1457,25 +1868,25 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1063.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1483,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>367.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
         <v>898100</v>
@@ -1519,22 +1930,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1542,19 +1953,19 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>1450000</v>
@@ -1565,19 +1976,19 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>750000</v>
@@ -1598,22 +2009,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1621,16 +2032,16 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1642,16 +2053,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1663,16 +2074,16 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1684,16 +2095,16 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1705,16 +2116,16 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1726,16 +2137,16 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1747,16 +2158,16 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1768,16 +2179,16 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>6556</v>
@@ -1791,16 +2202,16 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1812,16 +2223,16 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1833,16 +2244,16 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1854,16 +2265,16 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1875,16 +2286,16 @@
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1896,16 +2307,16 @@
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>7780</v>
@@ -1929,43 +2340,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1973,10 +2384,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -1985,28 +2396,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2">
         <v>708</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2">
         <v>86</v>
@@ -2017,10 +2428,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>3000</v>
@@ -2029,28 +2440,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2">
         <v>708</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
         <v>87</v>
@@ -2071,25 +2482,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2097,13 +2508,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2112,7 +2523,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2">
         <v>153816</v>
@@ -2123,13 +2534,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2138,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2">
         <v>81664</v>
@@ -2149,13 +2560,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2164,7 +2575,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2">
         <v>77952</v>
@@ -2175,13 +2586,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2190,7 +2601,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2">
         <v>141491</v>
@@ -2201,13 +2612,13 @@
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2216,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2">
         <v>36192</v>
@@ -2227,13 +2638,13 @@
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2242,7 +2653,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2">
         <v>97875</v>
@@ -2253,13 +2664,13 @@
         <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2268,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2">
         <v>848100</v>
@@ -2279,13 +2690,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2294,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2">
         <v>172753</v>
@@ -2305,13 +2716,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2320,7 +2731,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2">
         <v>140998</v>
@@ -2331,13 +2742,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2346,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2">
         <v>103240</v>
@@ -2357,13 +2768,13 @@
         <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2372,7 +2783,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2">
         <v>215064</v>
@@ -2383,13 +2794,13 @@
         <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2398,7 +2809,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2">
         <v>150336</v>
@@ -2409,13 +2820,13 @@
         <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -2424,7 +2835,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2">
         <v>22539</v>
@@ -2435,13 +2846,13 @@
         <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -2450,7 +2861,7 @@
         <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H15" s="2">
         <v>34104</v>
@@ -2461,13 +2872,13 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -2476,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2">
         <v>86843</v>
@@ -2487,13 +2898,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -2502,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H17" s="2">
         <v>124816</v>
@@ -2513,13 +2924,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -2528,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2">
         <v>73337</v>
@@ -2549,22 +2960,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2572,14 +2983,14 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2589,22 +3000,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2622,13 +3033,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2636,13 +3047,13 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2650,13 +3061,13 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2664,13 +3075,13 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2678,13 +3089,13 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2692,13 +3103,13 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2706,13 +3117,13 @@
         <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2720,13 +3131,13 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2734,13 +3145,13 @@
         <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2748,13 +3159,13 @@
         <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2762,13 +3173,13 @@
         <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2776,13 +3187,13 @@
         <v>138</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2790,13 +3201,13 @@
         <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2804,13 +3215,13 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2818,13 +3229,13 @@
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2832,13 +3243,13 @@
         <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2846,13 +3257,13 @@
         <v>143</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2870,22 +3281,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2893,22 +3304,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2916,22 +3327,22 @@
         <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -66,7 +66,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>雲林縣崙背鄉面前厝段12750024地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>雲林縣崙背鄉面前厝段12790000地號</t>
@@ -108,7 +111,7 @@
     <t>臺北市士林區天山段一小段03260000地號</t>
   </si>
   <si>
-    <t>臺北市士林區天山段一小段</t>
+    <t>臺北市士林區天山段一小段03280000地號</t>
   </si>
   <si>
     <t>臺中市北屯區景美段01710002地號</t>
@@ -120,36 +123,33 @@
     <t>臺中市北屯區景美段00470002地號</t>
   </si>
   <si>
+    <t>4073分之182</t>
+  </si>
+  <si>
+    <t>480分之19</t>
+  </si>
+  <si>
+    <t>10000分之509</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>4073分之182</t>
-  </si>
-  <si>
-    <t>480分之19</t>
-  </si>
-  <si>
-    <t>10000分之509</t>
-  </si>
-  <si>
-    <t>10000分之</t>
-  </si>
-  <si>
     <t>李應元</t>
   </si>
   <si>
     <t>黃月桂</t>
   </si>
   <si>
+    <t>87年04月17日</t>
+  </si>
+  <si>
+    <t>96年07月19日.</t>
+  </si>
+  <si>
     <t>96年07月19日</t>
   </si>
   <si>
-    <t>87年04月17日</t>
-  </si>
-  <si>
-    <t>96年07月19日.</t>
-  </si>
-  <si>
     <t>96年07月19曰</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
     <t>96年07月16日</t>
   </si>
   <si>
-    <t>96年07月</t>
-  </si>
-  <si>
     <t>91年09月11曰</t>
   </si>
   <si>
@@ -195,27 +192,6 @@
     <t>tmp3fed1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市士林區天山段一小段11793000建號</t>
   </si>
   <si>
@@ -234,228 +210,165 @@
     <t>1852047(共有）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>96年</t>
+  </si>
+  <si>
+    <t>Toyotacamary</t>
+  </si>
+  <si>
+    <t>98年</t>
+  </si>
+  <si>
+    <t>cm5貝賣</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司行政院郵局</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行天母分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行忠誠分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台中大坑郵局</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>上銀科技(股)公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>BR世界黃金</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>BR世礦</t>
+  </si>
+  <si>
+    <t>BR拉美</t>
+  </si>
+  <si>
+    <t>BR新歐美元</t>
+  </si>
+  <si>
+    <t>BR環高美</t>
+  </si>
+  <si>
+    <t>FDQ5</t>
+  </si>
+  <si>
+    <t>FRM3</t>
+  </si>
+  <si>
+    <t>MSK3</t>
+  </si>
+  <si>
+    <t>MSK7</t>
+  </si>
+  <si>
+    <t>天達動力資</t>
+  </si>
+  <si>
+    <t>天達黃金</t>
+  </si>
+  <si>
+    <t>富坦亞成</t>
+  </si>
+  <si>
+    <t>景順東協</t>
+  </si>
+  <si>
+    <t>群益葛萊美</t>
+  </si>
+  <si>
+    <t>摩根環境天然</t>
+  </si>
+  <si>
+    <t>寶來富櫃50</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>f額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>Toyotacamary</t>
-  </si>
-  <si>
-    <t>96年</t>
-  </si>
-  <si>
-    <t>98年</t>
-  </si>
-  <si>
-    <t>cm5貝賣</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司行政院郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行天母分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行忠誠分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台中大坑郵局</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>國泰綜合證券(股)公司</t>
-  </si>
-  <si>
-    <t>上銀科技(股)公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>BR世界黃金</t>
-  </si>
-  <si>
-    <t>BR世礦</t>
-  </si>
-  <si>
-    <t>BR拉美</t>
-  </si>
-  <si>
-    <t>BR新歐美元</t>
-  </si>
-  <si>
-    <t>BR環高美</t>
-  </si>
-  <si>
-    <t>FDQ5</t>
-  </si>
-  <si>
-    <t>FRM3</t>
-  </si>
-  <si>
-    <t>MSK3</t>
-  </si>
-  <si>
-    <t>MSK7</t>
-  </si>
-  <si>
-    <t>天達動力資</t>
-  </si>
-  <si>
-    <t>天達黃金</t>
-  </si>
-  <si>
-    <t>富坦亞成</t>
-  </si>
-  <si>
-    <t>景順東協</t>
-  </si>
-  <si>
-    <t>群益葛萊美</t>
-  </si>
-  <si>
-    <t>摩根環境天然</t>
-  </si>
-  <si>
-    <t>寶來富櫃50</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>f額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>全家福養老保險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -468,9 +381,6 @@
     <t>統一安聯人壽</t>
   </si>
   <si>
-    <t>全家福養老保險</t>
-  </si>
-  <si>
     <t>掌握人生變額萬能壽險甲型</t>
   </si>
   <si>
@@ -516,37 +426,22 @@
     <t>超優變額萬能壽險</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>國泰世華商業銀行臺北市中山區建國北路</t>
   </si>
   <si>
+    <t>98年12月18曰</t>
+  </si>
+  <si>
+    <t>償還購屋貸款</t>
+  </si>
+  <si>
     <t>台新國際商業銀行臺北市中山區中山北路</t>
   </si>
   <si>
-    <t>98年12月18曰</t>
-  </si>
-  <si>
     <t>96年11月16日</t>
-  </si>
-  <si>
-    <t>償還購屋貸款</t>
   </si>
 </sst>
 </file>
@@ -905,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,19 +849,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>118.05</v>
+        <v>2.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
@@ -975,19 +876,19 @@
         <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2">
-        <v>1298550</v>
+        <v>25314</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>37</v>
@@ -996,24 +897,30 @@
         <v>708</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0446845077338571</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.102774367787871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2.3</v>
+        <v>24.51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>37</v>
@@ -1022,19 +929,19 @@
         <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2">
-        <v>25314</v>
+        <v>10672</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>37</v>
@@ -1043,21 +950,27 @@
         <v>708</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.9701875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>24.51</v>
+        <v>264.3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>34</v>
@@ -1069,19 +982,19 @@
         <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2">
-        <v>10672</v>
+        <v>115081</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>37</v>
@@ -1090,21 +1003,27 @@
         <v>708</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10.461875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>264.3</v>
+        <v>34.02</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
@@ -1113,22 +1032,22 @@
         <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2">
-        <v>115081</v>
+        <v>14813</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>37</v>
@@ -1137,21 +1056,27 @@
         <v>708</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.346625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>34.02</v>
+        <v>6.41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -1160,22 +1085,22 @@
         <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2">
-        <v>14813</v>
+        <v>2791</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>37</v>
@@ -1184,21 +1109,27 @@
         <v>708</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.253729166666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>6.41</v>
+        <v>89.43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>34</v>
@@ -1207,22 +1138,22 @@
         <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2">
-        <v>2791</v>
+        <v>38939</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>37</v>
@@ -1231,21 +1162,27 @@
         <v>708</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.5399375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>89.43</v>
+        <v>4.32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
@@ -1254,22 +1191,22 @@
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
-        <v>38939</v>
+        <v>1881</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>37</v>
@@ -1278,21 +1215,27 @@
         <v>708</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>4.32</v>
+        <v>0.17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -1301,22 +1244,22 @@
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2">
-        <v>1881</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>37</v>
@@ -1325,21 +1268,27 @@
         <v>708</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.00672916666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>0.17</v>
+        <v>46.2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -1348,22 +1297,22 @@
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2">
-        <v>74</v>
+        <v>20116</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>37</v>
@@ -1372,21 +1321,27 @@
         <v>708</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.82875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>46.2</v>
+        <v>12.68</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
@@ -1395,22 +1350,22 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2">
-        <v>20116</v>
+        <v>5521</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>37</v>
@@ -1419,21 +1374,27 @@
         <v>708</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.501916666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>12.68</v>
+        <v>82.71</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>34</v>
@@ -1442,22 +1403,22 @@
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2">
-        <v>5521</v>
+        <v>36013</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>37</v>
@@ -1466,21 +1427,27 @@
         <v>708</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.2739375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>82.71</v>
+        <v>16.61</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
@@ -1489,22 +1456,22 @@
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2">
-        <v>36013</v>
+        <v>7232</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>37</v>
@@ -1513,45 +1480,51 @@
         <v>708</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0395833333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.657479166666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>16.61</v>
+        <v>16.38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2">
-        <v>7232</v>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>37</v>
@@ -1560,21 +1533,27 @@
         <v>708</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0509</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.833742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>16.38</v>
+        <v>28.86</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
@@ -1588,17 +1567,17 @@
       <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2">
+        <v>3261214</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>37</v>
@@ -1607,45 +1586,51 @@
         <v>708</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0509</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.468974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>28.86</v>
+        <v>291.49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2">
-        <v>3261214</v>
+        <v>6121290</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>37</v>
@@ -1654,24 +1639,30 @@
         <v>708</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>291.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>291.49</v>
+        <v>259.49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
@@ -1680,19 +1671,19 @@
         <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2">
-        <v>6121290</v>
+        <v>6513199</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>37</v>
@@ -1701,24 +1692,30 @@
         <v>708</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>259.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>259.49</v>
+        <v>259.2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>38</v>
@@ -1727,19 +1724,19 @@
         <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H18" s="2">
-        <v>6513199</v>
+        <v>6505920</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>37</v>
@@ -1748,57 +1745,16 @@
         <v>708</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
         <v>259.2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6505920</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="2">
-        <v>708</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1816,39 +1772,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>192.3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="H1" s="1">
+        <v>606500</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>192.3</v>
+        <v>1063.75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
@@ -1857,61 +1813,35 @@
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2">
-        <v>606500</v>
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
-        <v>1063.75</v>
+        <v>367.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2">
-        <v>367.5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="2">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
         <v>898100</v>
       </c>
     </row>
@@ -1922,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1930,67 +1860,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1984</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1450000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2">
         <v>750000</v>
       </c>
     </row>
@@ -2001,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2009,64 +1916,62 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>950974</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>950974</v>
+        <v>63226</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>63226</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2074,254 +1979,233 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>43808</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>100000</v>
+        <v>125632</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>125632</v>
+        <v>448494</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>448494</v>
+        <v>587415</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>6556</v>
+      </c>
       <c r="G8" s="2">
-        <v>587415</v>
+        <v>190124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2">
-        <v>6556</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>190124</v>
+        <v>179049</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>179049</v>
+        <v>1247571</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1247571</v>
+        <v>813607</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>813607</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>600000</v>
+        <v>16856</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>7780</v>
+      </c>
       <c r="G14" s="2">
-        <v>16856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7780</v>
-      </c>
-      <c r="G15" s="2">
         <v>225620</v>
       </c>
     </row>
@@ -2332,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,16 +2230,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2381,34 +2265,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>37</v>
@@ -2417,54 +2301,10 @@
         <v>708</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2">
-        <v>708</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2314,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2482,103 +2322,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1">
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="H1" s="1">
+        <v>153816</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
-        <v>153816</v>
+        <v>81664</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2">
-        <v>81664</v>
+        <v>77952</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2">
-        <v>77952</v>
+        <v>141491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2586,362 +2426,336 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
-        <v>141491</v>
+        <v>36192</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2">
         <v>125</v>
       </c>
-      <c r="E6" s="2">
-        <v>156</v>
-      </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2">
-        <v>36192</v>
+        <v>97875</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2">
-        <v>125</v>
+        <v>2570</v>
       </c>
       <c r="F7" s="2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
-        <v>97875</v>
+        <v>848100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
-        <v>2570</v>
+        <v>259</v>
       </c>
       <c r="F8" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2">
-        <v>848100</v>
+        <v>172753</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="F9" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2">
-        <v>172753</v>
+        <v>140998</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="F10" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2">
-        <v>140998</v>
+        <v>103240</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2">
-        <v>103240</v>
+        <v>215064</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2">
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
-        <v>215064</v>
+        <v>150336</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2">
-        <v>150336</v>
+        <v>22539</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2">
-        <v>22539</v>
+        <v>34104</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2">
+        <v>6998</v>
+      </c>
+      <c r="F15" s="2">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
-        <v>98</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2">
-        <v>34104</v>
+        <v>86843</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2">
-        <v>6998</v>
+        <v>269</v>
       </c>
       <c r="F16" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2">
-        <v>86843</v>
+        <v>124816</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2">
-        <v>269</v>
+        <v>6667</v>
       </c>
       <c r="F17" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2">
-        <v>124816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>114</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6667</v>
-      </c>
-      <c r="F18" s="2">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="2">
         <v>73337</v>
       </c>
     </row>
@@ -2952,7 +2766,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2960,62 +2774,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +2816,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3033,24 +2824,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
@@ -3058,13 +2849,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -3072,13 +2863,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
@@ -3089,10 +2880,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -3100,13 +2891,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
@@ -3114,13 +2905,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
@@ -3128,13 +2919,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>
@@ -3142,13 +2933,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -3156,13 +2947,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -3170,13 +2961,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -3184,13 +2975,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -3198,13 +2989,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -3212,13 +3003,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -3226,13 +3017,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>38</v>
@@ -3240,29 +3031,15 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>143</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3273,7 +3050,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3281,68 +3058,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>135</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2">
-        <v>8387909</v>
+        <v>288647</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>154</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="2">
-        <v>288647</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>雲林縣崙背鄉面前厝段12750024地號</t>
+  </si>
+  <si>
     <t>雲林縣崙背鄉面前厝段12790000地號</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t>臺中市北屯區景美段00470002地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>4073分之182</t>
   </si>
   <si>
@@ -132,24 +138,21 @@
     <t>10000分之509</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>李應元</t>
   </si>
   <si>
     <t>黃月桂</t>
   </si>
   <si>
+    <t>96年07月19日</t>
+  </si>
+  <si>
     <t>87年04月17日</t>
   </si>
   <si>
     <t>96年07月19日.</t>
   </si>
   <si>
-    <t>96年07月19日</t>
-  </si>
-  <si>
     <t>96年07月19曰</t>
   </si>
   <si>
@@ -274,6 +277,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國泰綜合證券(股)公司</t>
   </si>
   <si>
     <t>上銀科技(股)公司</t>
@@ -800,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,758 +864,758 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2.3</v>
+        <v>118.05</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2">
-        <v>25314</v>
+        <v>1298550</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2">
         <v>708</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0446845077338571</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.102774367787871</v>
+        <v>118.05</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>24.51</v>
+        <v>2.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
-        <v>10672</v>
+        <v>25314</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2">
         <v>708</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0395833333333333</v>
+        <v>0.0446845077338571</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.9701875</v>
+        <v>0.102774367787871</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>264.3</v>
+        <v>24.51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
-        <v>115081</v>
+        <v>10672</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="2">
         <v>708</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>10.461875</v>
+        <v>0.9701875</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>34.02</v>
+        <v>264.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
-        <v>14813</v>
+        <v>115081</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2">
         <v>708</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.346625</v>
+        <v>10.461875</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>6.41</v>
+        <v>34.02</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
-        <v>2791</v>
+        <v>14813</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="2">
         <v>708</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.253729166666667</v>
+        <v>1.346625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>89.43</v>
+        <v>6.41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
-        <v>38939</v>
+        <v>2791</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="2">
         <v>708</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.5399375</v>
+        <v>0.253729166666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>4.32</v>
+        <v>89.43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2">
-        <v>1881</v>
+        <v>38939</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2">
         <v>708</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.171</v>
+        <v>3.5399375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17</v>
+        <v>4.32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2">
-        <v>74</v>
+        <v>1881</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2">
         <v>708</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.00672916666666667</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>46.2</v>
+        <v>0.17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2">
-        <v>20116</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2">
         <v>708</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.82875</v>
+        <v>0.00672916666666667</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>12.68</v>
+        <v>46.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2">
-        <v>5521</v>
+        <v>20116</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="2">
         <v>708</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.501916666666667</v>
+        <v>1.82875</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>82.71</v>
+        <v>12.68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2">
-        <v>36013</v>
+        <v>5521</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12" s="2">
         <v>708</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.2739375</v>
+        <v>0.501916666666667</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>16.61</v>
+        <v>82.71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2">
-        <v>7232</v>
+        <v>36013</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M13" s="2">
         <v>708</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>0.0395833333333333</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.657479166666667</v>
+        <v>3.2739375</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>16.38</v>
+        <v>16.61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>51</v>
+      <c r="H14" s="2">
+        <v>7232</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M14" s="2">
         <v>708</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0509</v>
+        <v>0.0395833333333333</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.833742</v>
+        <v>0.657479166666667</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>28.86</v>
+        <v>16.38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="2">
-        <v>3261214</v>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="2">
         <v>708</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.0509</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.468974</v>
+        <v>0.833742</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>291.49</v>
+        <v>28.86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>38</v>
@@ -1618,142 +1624,195 @@
         <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2">
-        <v>6121290</v>
+        <v>3261214</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="2">
         <v>708</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0.0509</v>
       </c>
       <c r="Q16" s="2">
-        <v>291.49</v>
+        <v>1.468974</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>259.49</v>
+        <v>291.49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2">
-        <v>6513199</v>
+        <v>6121290</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M17" s="2">
         <v>708</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>259.49</v>
+        <v>291.49</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>259.2</v>
+        <v>259.49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
-        <v>6505920</v>
+        <v>6513199</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" s="2">
         <v>708</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
+        <v>259.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>259.2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6505920</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2">
+        <v>708</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
         <v>259.2</v>
       </c>
     </row>
@@ -1764,85 +1823,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1">
-        <v>192.3</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1">
-        <v>606500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>1063.75</v>
+        <v>192.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2">
+        <v>606500</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>708</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="2">
+        <v>1063.75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>708</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0509</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>54.144875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2">
         <v>367.5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2">
         <v>898100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>708</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>367.5</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +2045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1860,19 +2053,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1">
         <v>1984</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1">
         <v>1450000</v>
@@ -1880,24 +2073,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
         <v>1998</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2">
         <v>750000</v>
       </c>
     </row>
@@ -1908,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,16 +2132,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1934,278 +2150,299 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>63226</v>
+        <v>950974</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>43808</v>
+        <v>63226</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>100000</v>
+        <v>43808</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>125632</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>448494</v>
+        <v>125632</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>587415</v>
+        <v>448494</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6556</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>190124</v>
+        <v>587415</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6556</v>
+      </c>
       <c r="G9" s="2">
-        <v>179049</v>
+        <v>190124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1247571</v>
+        <v>179049</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>813607</v>
+        <v>1247571</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>600000</v>
+        <v>813607</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>16856</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>16856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2">
         <v>7780</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>225620</v>
       </c>
     </row>
@@ -2216,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2230,13 +2467,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2265,45 +2502,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>708</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2">
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2">
+        <v>708</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="2">
         <v>85</v>
       </c>
     </row>
@@ -2314,7 +2595,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2322,13 +2603,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>102</v>
@@ -2337,7 +2618,7 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1">
         <v>153816</v>
@@ -2345,417 +2626,443 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2">
-        <v>81664</v>
+        <v>153816</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2">
-        <v>77952</v>
+        <v>81664</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2">
-        <v>141491</v>
+        <v>77952</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2">
-        <v>36192</v>
+        <v>141491</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F6" s="2">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2">
-        <v>97875</v>
+        <v>36192</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
-        <v>2570</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2">
-        <v>848100</v>
+        <v>97875</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2">
-        <v>259</v>
+        <v>2570</v>
       </c>
       <c r="F8" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2">
-        <v>172753</v>
+        <v>848100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F9" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2">
-        <v>140998</v>
+        <v>172753</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2">
-        <v>103240</v>
+        <v>140998</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="F11" s="2">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2">
-        <v>215064</v>
+        <v>103240</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2">
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2">
-        <v>150336</v>
+        <v>215064</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2">
-        <v>22539</v>
+        <v>150336</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2">
-        <v>34104</v>
+        <v>22539</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2">
-        <v>6998</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2">
-        <v>86843</v>
+        <v>34104</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2">
-        <v>269</v>
+        <v>6998</v>
       </c>
       <c r="F16" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2">
-        <v>124816</v>
+        <v>86843</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2">
+        <v>269</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2">
+        <v>124816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>112</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2">
         <v>6667</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>11</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2">
         <v>73337</v>
       </c>
     </row>
@@ -2766,7 +3073,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,39 +3081,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2824,223 +3148,237 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>141</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
+      <c r="B17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3388,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3058,45 +3396,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1">
         <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8387909</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>152</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="2">
         <v>288647</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -213,13 +213,16 @@
     <t>1852047(共有）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Volvo</t>
   </si>
   <si>
+    <t>Toyotacamary</t>
+  </si>
+  <si>
     <t>96年</t>
-  </si>
-  <si>
-    <t>Toyotacamary</t>
   </si>
   <si>
     <t>98年</t>
@@ -2045,38 +2048,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1">
-        <v>1984</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -2085,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>51</v>
@@ -2093,8 +2117,29 @@
       <c r="G2" s="2">
         <v>1450000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2">
+        <v>708</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -2108,13 +2153,34 @@
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2">
         <v>750000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2">
+        <v>708</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2132,13 +2198,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -2153,13 +2219,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -2174,13 +2240,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -2195,13 +2261,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
@@ -2216,13 +2282,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -2237,13 +2303,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
@@ -2258,13 +2324,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
@@ -2279,13 +2345,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
@@ -2300,13 +2366,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
@@ -2323,13 +2389,13 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
@@ -2344,13 +2410,13 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
@@ -2365,13 +2431,13 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
@@ -2386,13 +2452,13 @@
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
@@ -2407,13 +2473,13 @@
         <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -2428,13 +2494,13 @@
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -2467,13 +2533,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2505,7 +2571,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2517,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
@@ -2549,7 +2615,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2561,13 +2627,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2">
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -2603,13 +2669,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>102</v>
@@ -2618,7 +2684,7 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1">
         <v>153816</v>
@@ -2629,13 +2695,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2644,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>153816</v>
@@ -2655,13 +2721,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2670,7 +2736,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>81664</v>
@@ -2681,13 +2747,13 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2696,7 +2762,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>77952</v>
@@ -2707,13 +2773,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2722,7 +2788,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2">
         <v>141491</v>
@@ -2733,13 +2799,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2748,7 +2814,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>36192</v>
@@ -2759,13 +2825,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2774,7 +2840,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2">
         <v>97875</v>
@@ -2785,13 +2851,13 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2800,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>848100</v>
@@ -2811,13 +2877,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2826,7 +2892,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
         <v>172753</v>
@@ -2837,13 +2903,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2852,7 +2918,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2">
         <v>140998</v>
@@ -2863,13 +2929,13 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2878,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2">
         <v>103240</v>
@@ -2889,13 +2955,13 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2904,7 +2970,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2">
         <v>215064</v>
@@ -2915,13 +2981,13 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2930,7 +2996,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2">
         <v>150336</v>
@@ -2941,13 +3007,13 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -2956,7 +3022,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>22539</v>
@@ -2967,13 +3033,13 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -2982,7 +3048,7 @@
         <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2">
         <v>34104</v>
@@ -2993,13 +3059,13 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -3008,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2">
         <v>86843</v>
@@ -3019,13 +3085,13 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -3034,7 +3100,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2">
         <v>124816</v>
@@ -3045,13 +3111,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -3060,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>73337</v>
@@ -3081,14 +3147,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3098,16 +3164,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3115,22 +3181,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3148,10 +3214,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
@@ -3162,10 +3228,10 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -3176,10 +3242,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3190,10 +3256,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -3204,10 +3270,10 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
@@ -3218,10 +3284,10 @@
         <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -3232,10 +3298,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3246,10 +3312,10 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -3260,10 +3326,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -3274,10 +3340,10 @@
         <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -3288,10 +3354,10 @@
         <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -3302,10 +3368,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -3316,10 +3382,10 @@
         <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -3330,10 +3396,10 @@
         <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -3344,10 +3410,10 @@
         <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -3358,10 +3424,10 @@
         <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -3372,10 +3438,10 @@
         <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -3396,22 +3462,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1">
         <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3419,22 +3485,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3442,22 +3508,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -213,6 +213,9 @@
     <t>1852047(共有）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
   </si>
   <si>
     <t>cm5貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司行政院郵局</t>
@@ -1908,7 +1914,7 @@
         <v>606500</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>54</v>
@@ -1961,7 +1967,7 @@
         <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>54</v>
@@ -2014,7 +2020,7 @@
         <v>898100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>54</v>
@@ -2059,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2100,7 +2106,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>1984</v>
@@ -2109,7 +2115,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>51</v>
@@ -2118,7 +2124,7 @@
         <v>1450000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
@@ -2144,7 +2150,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>1998</v>
@@ -2153,16 +2159,16 @@
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>750000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -2198,13 +2204,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
@@ -2219,13 +2225,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -2240,13 +2246,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
@@ -2261,13 +2267,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
@@ -2282,13 +2288,13 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -2303,13 +2309,13 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
@@ -2324,13 +2330,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
@@ -2345,13 +2351,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
@@ -2366,13 +2372,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
@@ -2389,13 +2395,13 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>39</v>
@@ -2410,13 +2416,13 @@
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
@@ -2431,13 +2437,13 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
@@ -2452,13 +2458,13 @@
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
@@ -2473,13 +2479,13 @@
         <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -2494,13 +2500,13 @@
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -2533,13 +2539,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2571,7 +2577,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2583,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
@@ -2615,7 +2621,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2627,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -2669,13 +2675,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>102</v>
@@ -2684,7 +2690,7 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1">
         <v>153816</v>
@@ -2695,13 +2701,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2710,7 +2716,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>153816</v>
@@ -2721,13 +2727,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2736,7 +2742,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <v>81664</v>
@@ -2747,13 +2753,13 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2762,7 +2768,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>77952</v>
@@ -2773,13 +2779,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2788,7 +2794,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>141491</v>
@@ -2799,13 +2805,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2814,7 +2820,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2">
         <v>36192</v>
@@ -2825,13 +2831,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2840,7 +2846,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2">
         <v>97875</v>
@@ -2851,13 +2857,13 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2866,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2">
         <v>848100</v>
@@ -2877,13 +2883,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2892,7 +2898,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2">
         <v>172753</v>
@@ -2903,13 +2909,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2918,7 +2924,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2">
         <v>140998</v>
@@ -2929,13 +2935,13 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2944,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2">
         <v>103240</v>
@@ -2955,13 +2961,13 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2970,7 +2976,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2">
         <v>215064</v>
@@ -2981,13 +2987,13 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -2996,7 +3002,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2">
         <v>150336</v>
@@ -3007,13 +3013,13 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -3022,7 +3028,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2">
         <v>22539</v>
@@ -3033,13 +3039,13 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -3048,7 +3054,7 @@
         <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2">
         <v>34104</v>
@@ -3059,13 +3065,13 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -3074,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
         <v>86843</v>
@@ -3085,13 +3091,13 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -3100,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2">
         <v>124816</v>
@@ -3111,13 +3117,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -3126,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" s="2">
         <v>73337</v>
@@ -3147,14 +3153,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3164,16 +3170,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3181,22 +3187,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3214,10 +3220,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
@@ -3228,10 +3234,10 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -3242,10 +3248,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3256,10 +3262,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -3270,10 +3276,10 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
@@ -3284,10 +3290,10 @@
         <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -3298,10 +3304,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3312,10 +3318,10 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -3326,10 +3332,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -3340,10 +3346,10 @@
         <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -3354,10 +3360,10 @@
         <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -3368,10 +3374,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -3382,10 +3388,10 @@
         <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -3396,10 +3402,10 @@
         <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -3410,10 +3416,10 @@
         <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -3424,10 +3430,10 @@
         <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -3438,10 +3444,10 @@
         <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -3462,22 +3468,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1">
         <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3485,22 +3491,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3508,22 +3514,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -237,55 +237,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司行政院郵局</t>
   </si>
   <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行天母分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行天母分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行忠誠分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台中大坑郵局</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行天母分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行天母分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行忠誠分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台中大坑郵局</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國泰綜合證券(股)公司</t>
@@ -2196,13 +2205,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2213,309 +2222,605 @@
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>950974</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>950974</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2">
+        <v>708</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>63226</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2">
+        <v>708</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>43808</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2">
+        <v>708</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>708</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>125632</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2">
+        <v>708</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>448494</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2">
+        <v>708</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>587415</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2">
+        <v>708</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="2">
-        <v>6556</v>
-      </c>
-      <c r="G9" s="2">
         <v>190124</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>708</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2">
+        <v>179049</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2">
+        <v>708</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="2">
         <v>72</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>179049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1247571</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2">
+        <v>708</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="2">
         <v>73</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1247571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>813607</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2">
+        <v>708</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="2">
+        <v>708</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>16856</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2">
+        <v>708</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="2">
-        <v>7780</v>
-      </c>
-      <c r="G15" s="2">
         <v>225620</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="2">
+        <v>708</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2539,13 +2844,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2577,7 +2882,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -2589,13 +2894,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
@@ -2621,7 +2926,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -2633,13 +2938,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -2675,13 +2980,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>102</v>
@@ -2690,7 +2995,7 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1">
         <v>153816</v>
@@ -2701,13 +3006,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -2716,7 +3021,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2">
         <v>153816</v>
@@ -2727,13 +3032,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -2742,7 +3047,7 @@
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2">
         <v>81664</v>
@@ -2753,13 +3058,13 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -2768,7 +3073,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>77952</v>
@@ -2779,13 +3084,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -2794,7 +3099,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2">
         <v>141491</v>
@@ -2805,13 +3110,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -2820,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2">
         <v>36192</v>
@@ -2831,13 +3136,13 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <v>125</v>
@@ -2846,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
         <v>97875</v>
@@ -2857,13 +3162,13 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>2570</v>
@@ -2872,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2">
         <v>848100</v>
@@ -2883,13 +3188,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <v>259</v>
@@ -2898,7 +3203,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2">
         <v>172753</v>
@@ -2909,13 +3214,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
         <v>286</v>
@@ -2924,7 +3229,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2">
         <v>140998</v>
@@ -2935,13 +3240,13 @@
         <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2">
         <v>356</v>
@@ -2950,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2">
         <v>103240</v>
@@ -2961,13 +3266,13 @@
         <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -2976,7 +3281,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2">
         <v>215064</v>
@@ -2987,13 +3292,13 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2">
         <v>72</v>
@@ -3002,7 +3307,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2">
         <v>150336</v>
@@ -3013,13 +3318,13 @@
         <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -3028,7 +3333,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2">
         <v>22539</v>
@@ -3039,13 +3344,13 @@
         <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -3054,7 +3359,7 @@
         <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H15" s="2">
         <v>34104</v>
@@ -3065,13 +3370,13 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -3080,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2">
         <v>86843</v>
@@ -3091,13 +3396,13 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -3106,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2">
         <v>124816</v>
@@ -3117,13 +3422,13 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -3132,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2">
         <v>73337</v>
@@ -3153,14 +3458,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3170,16 +3475,16 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3187,22 +3492,22 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3220,10 +3525,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
@@ -3234,10 +3539,10 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
@@ -3248,10 +3553,10 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
@@ -3262,10 +3567,10 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -3276,10 +3581,10 @@
         <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
@@ -3290,10 +3595,10 @@
         <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -3304,10 +3609,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -3318,10 +3623,10 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -3332,10 +3637,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
@@ -3346,10 +3651,10 @@
         <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -3360,10 +3665,10 @@
         <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -3374,10 +3679,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -3388,10 +3693,10 @@
         <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -3402,10 +3707,10 @@
         <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -3416,10 +3721,10 @@
         <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -3430,10 +3735,10 @@
         <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -3444,10 +3749,10 @@
         <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -3468,22 +3773,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1">
         <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3491,22 +3796,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3514,22 +3819,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -13,16 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -306,85 +305,64 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>BR世界黃金</t>
   </si>
   <si>
+    <t>BR世礦</t>
+  </si>
+  <si>
+    <t>BR拉美</t>
+  </si>
+  <si>
+    <t>BR新歐美元</t>
+  </si>
+  <si>
+    <t>BR環高美</t>
+  </si>
+  <si>
+    <t>FDQ5</t>
+  </si>
+  <si>
+    <t>FRM3</t>
+  </si>
+  <si>
+    <t>MSK3</t>
+  </si>
+  <si>
+    <t>MSK7</t>
+  </si>
+  <si>
+    <t>天達動力資</t>
+  </si>
+  <si>
+    <t>天達黃金</t>
+  </si>
+  <si>
+    <t>富坦亞成</t>
+  </si>
+  <si>
+    <t>景順東協</t>
+  </si>
+  <si>
+    <t>群益葛萊美</t>
+  </si>
+  <si>
+    <t>摩根環境天然</t>
+  </si>
+  <si>
+    <t>寶來富櫃50</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>BR世礦</t>
-  </si>
-  <si>
-    <t>BR拉美</t>
-  </si>
-  <si>
-    <t>BR新歐美元</t>
-  </si>
-  <si>
-    <t>BR環高美</t>
-  </si>
-  <si>
-    <t>FDQ5</t>
-  </si>
-  <si>
-    <t>FRM3</t>
-  </si>
-  <si>
-    <t>MSK3</t>
-  </si>
-  <si>
-    <t>MSK7</t>
-  </si>
-  <si>
-    <t>天達動力資</t>
-  </si>
-  <si>
-    <t>天達黃金</t>
-  </si>
-  <si>
-    <t>富坦亞成</t>
-  </si>
-  <si>
-    <t>景順東協</t>
-  </si>
-  <si>
-    <t>群益葛萊美</t>
-  </si>
-  <si>
-    <t>摩根環境天然</t>
-  </si>
-  <si>
-    <t>寶來富櫃50</t>
-  </si>
-  <si>
     <t>國泰世華商業銀行</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>f額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>台灣人壽</t>
@@ -2972,47 +2950,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1">
-        <v>52</v>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1">
-        <v>153816</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>102</v>
@@ -3026,8 +3025,29 @@
       <c r="H2" s="2">
         <v>153816</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>708</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>96</v>
       </c>
@@ -3038,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>44</v>
@@ -3052,8 +3072,29 @@
       <c r="H3" s="2">
         <v>81664</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>708</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>97</v>
       </c>
@@ -3064,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
@@ -3078,8 +3119,29 @@
       <c r="H4" s="2">
         <v>77952</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>708</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>98</v>
       </c>
@@ -3090,7 +3152,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -3104,8 +3166,29 @@
       <c r="H5" s="2">
         <v>141491</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>708</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -3116,7 +3199,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2">
         <v>156</v>
@@ -3130,8 +3213,29 @@
       <c r="H6" s="2">
         <v>36192</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2">
+        <v>708</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -3156,8 +3260,29 @@
       <c r="H7" s="2">
         <v>97875</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2">
+        <v>708</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>102</v>
       </c>
@@ -3182,8 +3307,29 @@
       <c r="H8" s="2">
         <v>848100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2">
+        <v>708</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>103</v>
       </c>
@@ -3208,8 +3354,29 @@
       <c r="H9" s="2">
         <v>172753</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>708</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>104</v>
       </c>
@@ -3234,8 +3401,29 @@
       <c r="H10" s="2">
         <v>140998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>708</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>105</v>
       </c>
@@ -3260,8 +3448,29 @@
       <c r="H11" s="2">
         <v>103240</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>708</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>106</v>
       </c>
@@ -3272,7 +3481,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2">
         <v>103</v>
@@ -3286,8 +3495,29 @@
       <c r="H12" s="2">
         <v>215064</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>708</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>107</v>
       </c>
@@ -3312,8 +3542,29 @@
       <c r="H13" s="2">
         <v>150336</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2">
+        <v>708</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>108</v>
       </c>
@@ -3324,7 +3575,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2">
         <v>25</v>
@@ -3338,8 +3589,29 @@
       <c r="H14" s="2">
         <v>22539</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2">
+        <v>708</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>109</v>
       </c>
@@ -3350,7 +3622,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2">
         <v>12</v>
@@ -3364,8 +3636,29 @@
       <c r="H15" s="2">
         <v>34104</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2">
+        <v>708</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>110</v>
       </c>
@@ -3376,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2">
         <v>6998</v>
@@ -3390,8 +3683,29 @@
       <c r="H16" s="2">
         <v>86843</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="2">
+        <v>708</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>111</v>
       </c>
@@ -3402,7 +3716,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2">
         <v>269</v>
@@ -3416,8 +3730,29 @@
       <c r="H17" s="2">
         <v>124816</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>708</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>112</v>
       </c>
@@ -3428,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2">
         <v>6667</v>
@@ -3441,6 +3776,27 @@
       </c>
       <c r="H18" s="2">
         <v>73337</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2">
+        <v>708</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3449,6 +3805,254 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>131</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>133</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>134</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>137</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>139</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3458,337 +4062,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>128</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>130</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>131</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>132</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>133</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>135</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
         <v>136</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>137</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>138</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>139</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>140</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>141</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E1" s="1">
         <v>8387909</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3796,22 +4085,22 @@
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3819,22 +4108,22 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
+++ b/legislator/property/output/normal/李應元_2012-04-18_財產申報表_tmp3fed1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -365,24 +365,27 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>統一安聯人壽</t>
+  </si>
+  <si>
     <t>全家福養老保險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>統一安聯人壽</t>
-  </si>
-  <si>
     <t>掌握人生變額萬能壽險甲型</t>
   </si>
   <si>
@@ -428,22 +431,34 @@
     <t>超優變額萬能壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>國泰世華商業銀行臺北市中山區建國北路</t>
   </si>
   <si>
+    <t>台新國際商業銀行臺北市中山區中山北路</t>
+  </si>
+  <si>
     <t>98年12月18曰</t>
   </si>
   <si>
+    <t>96年11月16日</t>
+  </si>
+  <si>
     <t>償還購屋貸款</t>
   </si>
   <si>
-    <t>台新國際商業銀行臺北市中山區中山北路</t>
-  </si>
-  <si>
-    <t>96年11月16日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -3806,52 +3821,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2">
+        <v>708</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2">
+        <v>708</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>127</v>
       </c>
@@ -3859,13 +3937,34 @@
         <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2">
+        <v>708</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>128</v>
       </c>
@@ -3873,13 +3972,34 @@
         <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2">
+        <v>708</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>130</v>
       </c>
@@ -3887,13 +4007,34 @@
         <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2">
+        <v>708</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>131</v>
       </c>
@@ -3901,13 +4042,34 @@
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2">
+        <v>708</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>132</v>
       </c>
@@ -3915,13 +4077,34 @@
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2">
+        <v>708</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>133</v>
       </c>
@@ -3929,13 +4112,34 @@
         <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2">
+        <v>708</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>134</v>
       </c>
@@ -3943,13 +4147,34 @@
         <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2">
+        <v>708</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>135</v>
       </c>
@@ -3957,13 +4182,34 @@
         <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2">
+        <v>708</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>136</v>
       </c>
@@ -3971,13 +4217,34 @@
         <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2">
+        <v>708</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>137</v>
       </c>
@@ -3985,55 +4252,139 @@
         <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2">
+        <v>708</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>138</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2">
+        <v>708</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2">
+        <v>708</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2">
+        <v>708</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>141</v>
       </c>
@@ -4041,10 +4392,31 @@
         <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="2">
+        <v>708</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="2">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4054,76 +4426,139 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1">
-        <v>8387909</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>8387909</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2">
+        <v>708</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>288647</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2">
+        <v>708</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
